--- a/output/CodeSystem-crewed-mars-missions-cs.xlsx
+++ b/output/CodeSystem-crewed-mars-missions-cs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.5</t>
+    <t>0.5.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T10:45:53-07:00</t>
+    <t>2025-12-30T13:15:27-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
